--- a/server11/users/admin2/2017_10_20_1/report_phase1.xlsx
+++ b/server11/users/admin2/2017_10_20_1/report_phase1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
   <si>
     <t xml:space="preserve">商业价值</t>
   </si>
@@ -38,1141 +38,1618 @@
     <t xml:space="preserve">总销售(元)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8,882,134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,216,088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">总利润(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,934,053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,350,603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">团队能力(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">得分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">累计得分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售业绩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上期总销售(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期总销售(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人民医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,835,990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,209,986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">军区医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">618,771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">647,325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中日医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,122,836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,366,610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铁路医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,066,967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,202,705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海港医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330,457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351,690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第六医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721,028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小营医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">616,041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">674,144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光华医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225,043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227,716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西河医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211,090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212,178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大学医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,133,911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,552,534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间分配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小宋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小白</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小青</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日常事物(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品培训(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">团队会议(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院拜访(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总工作时间(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各项指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期产品知识(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期产品知识(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期经验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期经验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期销售技巧(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期销售技巧(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期动力值(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期动力值(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职员成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绩效奖金(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359,907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能力辅导(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经理随访(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI分析(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行政工作(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">口服抗生素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一代降糖药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三代降糖药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮肤药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售代表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计划时间分配(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际时间分配(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 每产品(总)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售金额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,301,909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,262,870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">651,309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产成本(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,104,320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">602,268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205,650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产成本(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,197,589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660,602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445,659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 (总体)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">占比(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,912,238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593,340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工奖金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 每客户 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,702,691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311,511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841,764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93,372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98,370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,033,506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用预算(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用预算(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">787,727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84,412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184,341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,056,480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420,118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179,375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207,680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85,560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308,330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188,918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84,575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296,995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,217,182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128,128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601,744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">669,565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574,398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625,045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,006,944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146,409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497,816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583,198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470,848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553,507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239,107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92,664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118,228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168,734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105,879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152,956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">609,034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136,520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301,092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374,292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287,782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360,548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">561,391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100,522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277,552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329,348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261,879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308,796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157,085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77,660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110,430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3,336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87,286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129,935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101,364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51,595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,258,422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149,303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144,809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,116,544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,233,471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84,480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,057,398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,188,383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额和数量/客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期销售指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上期销售额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期销售额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额增长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额增长率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额达成率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,784,199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373,996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605,174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.97%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,087,761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243,774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.64%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,036,503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135,738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.72%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.03%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320,912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702,094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.84%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597,721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.79%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208,937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,072,305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418,623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,481,390</t>
+  </si>
+  <si>
     <t xml:space="preserve">8,882,134</t>
   </si>
   <si>
-    <t xml:space="preserve">4,741,782</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">总利润(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,934,053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,253,600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">团队能力(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">得分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">累计得分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售业绩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上期总销售(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期总销售(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人民医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,835,990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,428,085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">军区医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">618,771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">406,825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中日医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,122,836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940,901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铁路医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,066,967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">821,498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海港医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330,457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217,439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第六医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">721,028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173,664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小营医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">616,041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145,306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光华医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225,043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53,711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西河医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211,090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51,049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大学医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,133,911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">503,304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间分配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小宋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小兰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小青</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日常事物(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品培训(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">团队会议(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院拜访(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总工作时间(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">各项指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期产品知识(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期产品知识(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期经验</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期经验</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期销售技巧(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期销售技巧(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期动力值(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期动力值(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">职员成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">绩效奖金(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170,704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能力辅导(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">经理随访(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI分析(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">行政工作(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">口服抗生素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一代降糖药</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三代降糖药</t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮肤药</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售代表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计划时间分配(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实际时间分配(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 每产品(总)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售金额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,293,080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293,843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154,859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产成本(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,122,428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140,120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产成本(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,170,652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153,723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105,929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 (总体)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">占比(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,311,478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工奖金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 每客户 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,324,393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">654,764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">694,124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用预算(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用预算(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663,629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">727,961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">347,610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171,864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197,916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175,746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208,909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">908,687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">449,240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">463,720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">459,447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">477,181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">773,258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382,272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403,183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">390,986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418,315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94,116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106,150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96,262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111,289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83,975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89,689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117,998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70,768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74,538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430,798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241,323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217,838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261,981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额和数量/客户</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期销售指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上期销售额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期销售额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额增长</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额达成率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-407,905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.22%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inf%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-211,946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-181,935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-245,469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.01%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-113,018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-547,364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-470,735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-76.41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-171,332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-76.13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-160,041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1,630,607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4,140,352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.61%</t>
+    <t xml:space="preserve">1,333,954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.45%</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/代表</t>
   </si>
   <si>
+    <t xml:space="preserve">1,641,677</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,685,738</t>
   </si>
   <si>
+    <t xml:space="preserve">1,850,030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,408,673</t>
+  </si>
+  <si>
     <t xml:space="preserve">2,345,001</t>
   </si>
   <si>
+    <t xml:space="preserve">1,718,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.98%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,299,815</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,337,069</t>
   </si>
   <si>
+    <t xml:space="preserve">1,445,344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,849,983</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,453,293</t>
   </si>
   <si>
+    <t xml:space="preserve">2,437,702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,281,242</t>
+  </si>
+  <si>
     <t xml:space="preserve">2,061,033</t>
   </si>
   <si>
-    <t xml:space="preserve">3,544,326</t>
+    <t xml:space="preserve">2,764,712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.19%</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/产品</t>
   </si>
   <si>
+    <t xml:space="preserve">6,647,013</t>
+  </si>
+  <si>
     <t xml:space="preserve">7,016,004</t>
   </si>
   <si>
-    <t xml:space="preserve">-2,722,924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.81%</t>
+    <t xml:space="preserve">1,285,905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,200,485</t>
   </si>
   <si>
     <t xml:space="preserve">1,222,766</t>
   </si>
   <si>
-    <t xml:space="preserve">-928,923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.97%</t>
+    <t xml:space="preserve">40,104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633,892</t>
   </si>
   <si>
     <t xml:space="preserve">643,364</t>
   </si>
   <si>
-    <t xml:space="preserve">-488,505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.93%</t>
+    <t xml:space="preserve">7,945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.75%</t>
   </si>
 </sst>
 </file>
@@ -2079,21 +2556,21 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -2113,47 +2590,47 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2179,162 +2656,162 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2359,13 +2836,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -2373,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -2387,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -2395,23 +2872,23 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -2419,26 +2896,26 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2466,22 +2943,22 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -2492,19 +2969,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -2512,19 +2989,19 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -2532,19 +3009,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -2552,19 +3029,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -2572,19 +3049,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -2592,19 +3069,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -2612,19 +3089,19 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -2632,19 +3109,19 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -2652,19 +3129,19 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
@@ -2672,19 +3149,19 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2692,19 +3169,19 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -2712,19 +3189,19 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2732,19 +3209,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -2752,19 +3229,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2772,19 +3249,19 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
@@ -2792,19 +3269,19 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
@@ -2812,19 +3289,19 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -2832,19 +3309,19 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -2852,19 +3329,19 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21">
@@ -2872,19 +3349,19 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
@@ -2892,19 +3369,19 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
@@ -2912,19 +3389,19 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
@@ -2932,19 +3409,19 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
@@ -2952,19 +3429,19 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
@@ -2972,19 +3449,19 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27">
@@ -2992,19 +3469,19 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
@@ -3012,19 +3489,19 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -3032,19 +3509,19 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -3052,19 +3529,19 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
@@ -3072,19 +3549,19 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3107,22 +3584,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -3130,101 +3607,101 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9">
@@ -3232,57 +3709,57 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3307,28 +3784,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -3339,19 +3816,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -3362,22 +3839,22 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
@@ -3385,22 +3862,22 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5">
@@ -3408,22 +3885,22 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
@@ -3431,22 +3908,22 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7">
@@ -3454,22 +3931,22 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
@@ -3477,22 +3954,22 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -3500,19 +3977,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -3523,22 +4000,22 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
@@ -3546,22 +4023,22 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12">
@@ -3569,22 +4046,22 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
@@ -3592,22 +4069,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
@@ -3615,22 +4092,22 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15">
@@ -3638,22 +4115,22 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16">
@@ -3661,19 +4138,19 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -3684,22 +4161,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -3707,22 +4184,22 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -3730,22 +4207,22 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
@@ -3753,22 +4230,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21">
@@ -3776,22 +4253,22 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -3799,22 +4276,22 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23">
@@ -3822,19 +4299,19 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -3845,22 +4322,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25">
@@ -3868,22 +4345,22 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26">
@@ -3891,22 +4368,22 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27">
@@ -3914,22 +4391,22 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28">
@@ -3937,22 +4414,22 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
@@ -3960,22 +4437,22 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30">
@@ -3983,19 +4460,19 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
@@ -4006,22 +4483,22 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32">
@@ -4029,22 +4506,22 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33">
@@ -4052,22 +4529,22 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
@@ -4075,22 +4552,22 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
@@ -4098,22 +4575,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="E35" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
@@ -4121,22 +4598,22 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
@@ -4144,19 +4621,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -4167,22 +4644,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
@@ -4190,22 +4667,22 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -4213,22 +4690,22 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
@@ -4236,22 +4713,22 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>349</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
@@ -4259,22 +4736,22 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
@@ -4282,22 +4759,22 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>358</v>
       </c>
       <c r="F43" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H43" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44">
@@ -4305,19 +4782,19 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H44" t="s">
         <v>41</v>
@@ -4328,22 +4805,22 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="F45" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
@@ -4351,22 +4828,22 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
@@ -4374,22 +4851,22 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
@@ -4397,22 +4874,22 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>375</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>376</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49">
@@ -4420,22 +4897,22 @@
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="F49" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>284</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
@@ -4443,22 +4920,22 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
       <c r="F50" t="s">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H50" t="s">
-        <v>287</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51">
@@ -4466,19 +4943,19 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="E51" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
         <v>44</v>
@@ -4489,22 +4966,22 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>291</v>
+        <v>389</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
@@ -4512,22 +4989,22 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" t="s">
         <v>295</v>
-      </c>
-      <c r="E53" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" t="s">
-        <v>297</v>
-      </c>
-      <c r="G53" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="54">
@@ -4535,22 +5012,22 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55">
@@ -4558,22 +5035,22 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>397</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>398</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56">
@@ -4581,22 +5058,22 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H56" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57">
@@ -4604,22 +5081,22 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58">
@@ -4627,19 +5104,19 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
@@ -4650,22 +5127,22 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="E59" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="F59" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H59" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60">
@@ -4673,22 +5150,22 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>416</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H60" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61">
@@ -4696,22 +5173,22 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>342</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>342</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62">
@@ -4719,22 +5196,22 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>419</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>420</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63">
@@ -4742,22 +5219,22 @@
         <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>423</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H63" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64">
@@ -4765,22 +5242,22 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="E64" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>429</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H64" t="s">
-        <v>321</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65">
@@ -4788,19 +5265,19 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="F65" t="s">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H65" t="s">
         <v>50</v>
@@ -4811,22 +5288,22 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="E66" t="s">
-        <v>326</v>
+        <v>435</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>436</v>
       </c>
       <c r="G66" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67">
@@ -4834,22 +5311,22 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H67" t="s">
-        <v>331</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68">
@@ -4857,22 +5334,22 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>439</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>440</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>441</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69">
@@ -4880,22 +5357,22 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70">
@@ -4903,22 +5380,22 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="E70" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>335</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71">
@@ -4926,22 +5403,22 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>451</v>
       </c>
       <c r="E71" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="F71" t="s">
-        <v>337</v>
+        <v>453</v>
       </c>
       <c r="G71" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>338</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4964,28 +5441,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="D1" t="s">
-        <v>341</v>
+        <v>457</v>
       </c>
       <c r="E1" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="F1" t="s">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="G1" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="H1" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2">
@@ -4996,7 +5473,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5005,13 +5482,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
+        <v>463</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>464</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3">
@@ -5019,7 +5496,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -5028,13 +5505,13 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="G3" t="s">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4">
@@ -5042,7 +5519,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>470</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -5051,13 +5528,13 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
@@ -5065,7 +5542,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>474</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5074,13 +5551,13 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>475</v>
       </c>
       <c r="G5" t="s">
-        <v>354</v>
+        <v>476</v>
       </c>
       <c r="H5" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
@@ -5088,7 +5565,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5097,13 +5574,13 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>480</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7">
@@ -5111,7 +5588,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -5120,13 +5597,13 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="G7" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8">
@@ -5134,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>486</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -5143,13 +5620,13 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>487</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9">
@@ -5157,7 +5634,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>490</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -5166,13 +5643,13 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>491</v>
       </c>
       <c r="G9" t="s">
-        <v>362</v>
+        <v>492</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10">
@@ -5180,7 +5657,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -5189,13 +5666,13 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>495</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>496</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11">
@@ -5203,7 +5680,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>498</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -5212,56 +5689,56 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>499</v>
       </c>
       <c r="G11" t="s">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>504</v>
       </c>
       <c r="G12" t="s">
-        <v>367</v>
+        <v>505</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>457</v>
       </c>
       <c r="E14" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15">
@@ -5272,16 +5749,16 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>509</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="F15" t="s">
-        <v>348</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16">
@@ -5289,16 +5766,16 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>514</v>
       </c>
       <c r="F16" t="s">
-        <v>348</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17">
@@ -5306,16 +5783,16 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>517</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>518</v>
       </c>
       <c r="F17" t="s">
-        <v>348</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
@@ -5323,16 +5800,16 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>520</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
-        <v>348</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19">
@@ -5340,59 +5817,59 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>524</v>
       </c>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>525</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>526</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="D22" t="s">
-        <v>341</v>
+        <v>457</v>
       </c>
       <c r="E22" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="G22" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="H22" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23">
@@ -5400,117 +5877,117 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>529</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>530</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>377</v>
+        <v>531</v>
       </c>
       <c r="G23" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>534</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>535</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>380</v>
+        <v>536</v>
       </c>
       <c r="G24" t="s">
-        <v>381</v>
+        <v>537</v>
       </c>
       <c r="H24" t="s">
-        <v>348</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>539</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
-        <v>383</v>
+        <v>541</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>366</v>
+        <v>504</v>
       </c>
       <c r="G27" t="s">
-        <v>367</v>
+        <v>505</v>
       </c>
       <c r="H27" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/server11/users/admin2/2017_10_20_1/report_phase1.xlsx
+++ b/server11/users/admin2/2017_10_20_1/report_phase1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t xml:space="preserve">商业价值</t>
   </si>
@@ -38,10 +38,10 @@
     <t xml:space="preserve">总销售(元)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8,882,134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,216,088</t>
+    <t xml:space="preserve">18,989,923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,451,048</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -50,25 +50,25 @@
     <t xml:space="preserve">总利润(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">3,934,053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,350,603</t>
+    <t xml:space="preserve"> 8,656,849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,320,071</t>
   </si>
   <si>
     <t xml:space="preserve">团队能力(指数)</t>
   </si>
   <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
   </si>
   <si>
     <t xml:space="preserve">得分</t>
   </si>
   <si>
-    <t xml:space="preserve">81</t>
+    <t xml:space="preserve">80</t>
   </si>
   <si>
     <t xml:space="preserve">累计得分</t>
@@ -86,91 +86,91 @@
     <t xml:space="preserve">人民医院</t>
   </si>
   <si>
-    <t xml:space="preserve">1,835,990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,209,986</t>
+    <t xml:space="preserve">4,377,757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,012,556</t>
   </si>
   <si>
     <t xml:space="preserve">军区医院</t>
   </si>
   <si>
-    <t xml:space="preserve">618,771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">647,325</t>
+    <t xml:space="preserve">1,323,644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,549,434</t>
   </si>
   <si>
     <t xml:space="preserve">中日医院</t>
   </si>
   <si>
-    <t xml:space="preserve">1,122,836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,366,610</t>
+    <t xml:space="preserve">2,500,642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,963,067</t>
   </si>
   <si>
     <t xml:space="preserve">铁路医院</t>
   </si>
   <si>
-    <t xml:space="preserve">1,066,967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,202,705</t>
+    <t xml:space="preserve">2,127,112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,494,635</t>
   </si>
   <si>
     <t xml:space="preserve">海港医院</t>
   </si>
   <si>
-    <t xml:space="preserve">330,457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351,690</t>
+    <t xml:space="preserve">796,076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937,157</t>
   </si>
   <si>
     <t xml:space="preserve">第六医院</t>
   </si>
   <si>
-    <t xml:space="preserve">721,028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771,200</t>
+    <t xml:space="preserve">1,364,277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,557,748</t>
   </si>
   <si>
     <t xml:space="preserve">小营医院</t>
   </si>
   <si>
-    <t xml:space="preserve">616,041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">674,144</t>
+    <t xml:space="preserve">1,315,195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,525,080</t>
   </si>
   <si>
     <t xml:space="preserve">光华医院</t>
   </si>
   <si>
-    <t xml:space="preserve">225,043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227,716</t>
+    <t xml:space="preserve">436,260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493,099</t>
   </si>
   <si>
     <t xml:space="preserve">西河医院</t>
   </si>
   <si>
-    <t xml:space="preserve">211,090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212,178</t>
+    <t xml:space="preserve">375,156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410,940</t>
   </si>
   <si>
     <t xml:space="preserve">大学医院</t>
   </si>
   <si>
-    <t xml:space="preserve">2,133,911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,552,534</t>
+    <t xml:space="preserve">4,373,804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,507,332</t>
   </si>
   <si>
     <t xml:space="preserve">时间分配</t>
@@ -272,31 +272,19 @@
     <t xml:space="preserve">当期经验</t>
   </si>
   <si>
-    <t xml:space="preserve">99.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.52</t>
+    <t xml:space="preserve">94.58</t>
   </si>
   <si>
     <t xml:space="preserve">前期经验</t>
   </si>
   <si>
-    <t xml:space="preserve">97.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.61</t>
+    <t xml:space="preserve">83.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.73</t>
   </si>
   <si>
     <t xml:space="preserve">当期销售技巧(指数)</t>
@@ -308,12 +296,12 @@
     <t xml:space="preserve">78</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
     <t xml:space="preserve">49</t>
   </si>
   <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
     <t xml:space="preserve">57</t>
   </si>
   <si>
@@ -338,25 +326,16 @@
     <t xml:space="preserve">当期动力值(指数)</t>
   </si>
   <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
   </si>
   <si>
     <t xml:space="preserve">前期动力值(指数)</t>
   </si>
   <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
+    <t xml:space="preserve">61</t>
   </si>
   <si>
     <t xml:space="preserve">职员成本</t>
@@ -368,7 +347,7 @@
     <t xml:space="preserve">绩效奖金(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">359,907</t>
+    <t xml:space="preserve">808,238</t>
   </si>
   <si>
     <t xml:space="preserve">能力辅导(天)</t>
@@ -422,115 +401,40 @@
     <t xml:space="preserve">计划时间分配(天)</t>
   </si>
   <si>
+    <t xml:space="preserve">8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际时间分配(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">35.6</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实际时间分配(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8</t>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4</t>
   </si>
   <si>
     <t xml:space="preserve">8.7</t>
   </si>
   <si>
-    <t xml:space="preserve">13.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9</t>
+    <t xml:space="preserve">34.4</t>
   </si>
   <si>
     <t xml:space="preserve">利润贡献 每产品(总)</t>
@@ -539,25 +443,25 @@
     <t xml:space="preserve">销售金额(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">8,301,909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,262,870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">651,309</t>
+    <t xml:space="preserve">16,966,237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,734,338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,750,473</t>
   </si>
   <si>
     <t xml:space="preserve">生产成本(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">4,104,320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602,268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205,650</t>
+    <t xml:space="preserve">8,387,808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,780,981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552,750</t>
   </si>
   <si>
     <t xml:space="preserve">生产成本(%)</t>
@@ -569,820 +473,715 @@
     <t xml:space="preserve">47.69</t>
   </si>
   <si>
+    <t xml:space="preserve">31.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,578,429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,953,357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,197,723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 (总体)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">占比(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,721,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工奖金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 每客户 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,452,733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">779,664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">780,159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,706,980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371,845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246,360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,325,185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用预算(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用预算(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,730,753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377,819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518,799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,627,371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,078,796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372,191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98,447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533,324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177,506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">741,910</t>
+  </si>
+  <si>
     <t xml:space="preserve">31.57</t>
   </si>
   <si>
-    <t xml:space="preserve">利润贡献(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,197,589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660,602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">445,659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 (总体)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">占比(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,912,238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">593,340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工奖金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 每客户 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,702,691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195,784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311,511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">841,764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93,372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98,370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,033,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用预算(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,200</t>
+    <t xml:space="preserve">47.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505,272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184,485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">746,924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,390,518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476,413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96,136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,181,840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227,199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,439,399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,184,678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225,214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53,776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,463,668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,851,917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448,018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915,552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213,683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,190,705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912,365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210,335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121,230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,243,930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">643,277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229,476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318,032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109,430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447,802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301,245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96,046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429,355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,210,619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266,818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598,488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127,255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">751,093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588,131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115,563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">746,655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,086,062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381,985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">536,932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182,187</t>
   </si>
   <si>
     <t xml:space="preserve">18,000</t>
   </si>
   <si>
-    <t xml:space="preserve">28,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用预算(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">787,727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184,341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,056,480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420,118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179,375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207,680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85,560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308,330</t>
+    <t xml:space="preserve">737,119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525,130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175,798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">727,961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335,572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144,415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165,880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238,902</t>
   </si>
   <si>
     <t xml:space="preserve">49.43</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188,918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296,995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,217,182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128,128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">601,744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">669,565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">574,398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">625,045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,006,944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146,409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497,816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">583,198</t>
+    <t xml:space="preserve">48.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145,692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51,533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3,028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194,197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204,935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173,643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101,332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82,801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194,363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.45</t>
   </si>
   <si>
     <t xml:space="preserve">47.68</t>
   </si>
   <si>
-    <t xml:space="preserve">48.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470,848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553,507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239,107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92,664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118,228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168,734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105,879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152,956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609,034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136,520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301,092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374,292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287,782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360,548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">561,391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100,522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277,552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329,348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261,879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308,796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157,085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110,430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3,336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87,286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129,935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101,364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51,595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,258,422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149,303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144,809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,116,544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71,207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,233,471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,057,398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50,376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,188,383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.56</t>
+    <t xml:space="preserve">31.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88,603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156,577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,711,808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">461,715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333,809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,329,448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220,193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105,420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,655,061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,342,160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231,322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218,189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,791,671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.69</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/客户</t>
@@ -1409,199 +1208,196 @@
     <t xml:space="preserve">1,784,199</t>
   </si>
   <si>
-    <t xml:space="preserve">373,996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.86%</t>
+    <t xml:space="preserve">634,799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280.94%</t>
   </si>
   <si>
     <t xml:space="preserve">605,174</t>
   </si>
   <si>
-    <t xml:space="preserve">28,554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.97%</t>
+    <t xml:space="preserve">225,790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.06%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256.03%</t>
   </si>
   <si>
     <t xml:space="preserve">1,087,761</t>
   </si>
   <si>
-    <t xml:space="preserve">243,774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.64%</t>
+    <t xml:space="preserve">462,425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272.4%</t>
   </si>
   <si>
     <t xml:space="preserve">1,036,503</t>
   </si>
   <si>
-    <t xml:space="preserve">135,738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.03%</t>
+    <t xml:space="preserve">367,523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240.68%</t>
   </si>
   <si>
     <t xml:space="preserve">320,912</t>
   </si>
   <si>
-    <t xml:space="preserve">21,233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.59%</t>
+    <t xml:space="preserve">141,081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.72%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292.03%</t>
   </si>
   <si>
     <t xml:space="preserve">702,094</t>
   </si>
   <si>
-    <t xml:space="preserve">50,172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.84%</t>
+    <t xml:space="preserve">193,471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.87%</t>
   </si>
   <si>
     <t xml:space="preserve">597,721</t>
   </si>
   <si>
-    <t xml:space="preserve">58,103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.79%</t>
+    <t xml:space="preserve">209,885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.96%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.15%</t>
   </si>
   <si>
     <t xml:space="preserve">65,784</t>
   </si>
   <si>
-    <t xml:space="preserve">2,673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">346.16%</t>
+    <t xml:space="preserve">56,839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.03%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749.57%</t>
   </si>
   <si>
     <t xml:space="preserve">208,937</t>
   </si>
   <si>
-    <t xml:space="preserve">1,088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.55%</t>
+    <t xml:space="preserve">35,784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196.68%</t>
   </si>
   <si>
     <t xml:space="preserve">2,072,305</t>
   </si>
   <si>
-    <t xml:space="preserve">418,623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.17%</t>
+    <t xml:space="preserve">1,133,528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265.76%</t>
   </si>
   <si>
     <t xml:space="preserve">8,481,390</t>
   </si>
   <si>
-    <t xml:space="preserve">8,882,134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,333,954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.02%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.45%</t>
+    <t xml:space="preserve">3,461,125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264.71%</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/代表</t>
   </si>
   <si>
-    <t xml:space="preserve">1,641,677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,685,738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,850,030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,408,673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,345,001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,718,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.98%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,299,815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,337,069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,445,344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,849,983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,453,293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,437,702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.77%</t>
+    <t xml:space="preserve">2,389,373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,450,756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,561,990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">274.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,124,264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,748,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,457,702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,023,006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,679,472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,494,905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243.88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663,505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,296,718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,018,179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304.17%</t>
   </si>
   <si>
     <t xml:space="preserve">2,281,242</t>
   </si>
   <si>
-    <t xml:space="preserve">2,061,033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,764,712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.19%</t>
+    <t xml:space="preserve">4,814,017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,918,272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259.43%</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/产品</t>
@@ -1610,46 +1406,46 @@
     <t xml:space="preserve">6,647,013</t>
   </si>
   <si>
-    <t xml:space="preserve">7,016,004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,285,905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.9%</t>
+    <t xml:space="preserve">14,276,228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,690,009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.84%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.25%</t>
   </si>
   <si>
     <t xml:space="preserve">1,200,485</t>
   </si>
   <si>
-    <t xml:space="preserve">1,222,766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.2%</t>
+    <t xml:space="preserve">3,166,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567,906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311.07%</t>
   </si>
   <si>
     <t xml:space="preserve">633,892</t>
   </si>
   <si>
-    <t xml:space="preserve">643,364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.75%</t>
+    <t xml:space="preserve">1,547,263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203,210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.13%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276.15%</t>
   </si>
 </sst>
 </file>
@@ -2702,116 +2498,116 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2836,13 +2632,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -2850,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -2864,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -2872,18 +2668,18 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -2896,18 +2692,18 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2943,22 +2739,22 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -2969,19 +2765,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -2989,19 +2785,19 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -3009,19 +2805,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -3029,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -3041,7 +2837,7 @@
         <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -3049,19 +2845,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -3069,19 +2865,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -3089,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -3101,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -3109,19 +2905,19 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -3129,19 +2925,19 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -3149,19 +2945,19 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -3169,19 +2965,19 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3189,19 +2985,19 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -3209,19 +3005,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -3229,19 +3025,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -3249,19 +3045,19 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -3269,7 +3065,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
@@ -3281,7 +3077,7 @@
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -3289,19 +3085,19 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -3309,19 +3105,19 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -3329,19 +3125,19 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -3349,19 +3145,19 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -3369,19 +3165,19 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" t="s">
-        <v>161</v>
-      </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -3389,7 +3185,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -3401,7 +3197,7 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
@@ -3409,19 +3205,19 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -3429,19 +3225,19 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
         <v>137</v>
       </c>
-      <c r="D25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
-        <v>165</v>
-      </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -3449,7 +3245,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -3461,7 +3257,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -3469,19 +3265,19 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -3489,19 +3285,19 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -3509,7 +3305,7 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
@@ -3521,7 +3317,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -3529,19 +3325,19 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
         <v>133</v>
       </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -3549,19 +3345,19 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3584,22 +3380,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -3607,101 +3403,101 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
@@ -3709,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -3720,46 +3516,46 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3784,28 +3580,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -3816,19 +3612,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -3839,22 +3635,22 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
@@ -3862,22 +3658,22 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5">
@@ -3885,22 +3681,22 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -3908,22 +3704,22 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7">
@@ -3931,22 +3727,22 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
@@ -3954,22 +3750,22 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
@@ -3977,19 +3773,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -4000,22 +3796,22 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11">
@@ -4023,22 +3819,22 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12">
@@ -4046,22 +3842,22 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13">
@@ -4069,22 +3865,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
@@ -4092,22 +3888,22 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -4115,22 +3911,22 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
@@ -4138,19 +3934,19 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -4161,22 +3957,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -4184,22 +3980,22 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19">
@@ -4207,22 +4003,22 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -4230,22 +4026,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
@@ -4253,22 +4049,22 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -4276,22 +4072,22 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
@@ -4299,19 +4095,19 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -4322,22 +4118,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25">
@@ -4345,22 +4141,22 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
@@ -4368,22 +4164,22 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -4391,22 +4187,22 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
@@ -4414,22 +4210,22 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
@@ -4437,22 +4233,22 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="F29" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H29" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
@@ -4460,19 +4256,19 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="F30" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
@@ -4483,22 +4279,22 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4506,22 +4302,22 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
@@ -4529,22 +4325,22 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H33" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34">
@@ -4552,22 +4348,22 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -4575,22 +4371,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
@@ -4598,22 +4394,22 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
@@ -4621,19 +4417,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -4644,22 +4440,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H38" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
@@ -4667,22 +4463,22 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H39" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -4690,22 +4486,22 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
@@ -4713,22 +4509,22 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="E41" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H41" t="s">
-        <v>352</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42">
@@ -4736,22 +4532,22 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
@@ -4759,22 +4555,22 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H43" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -4782,19 +4578,19 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="E44" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H44" t="s">
         <v>41</v>
@@ -4805,22 +4601,22 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
@@ -4828,22 +4624,22 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H46" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47">
@@ -4851,22 +4647,22 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>235</v>
       </c>
       <c r="E47" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H47" t="s">
-        <v>373</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48">
@@ -4874,22 +4670,22 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="E48" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H48" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49">
@@ -4897,22 +4693,22 @@
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50">
@@ -4920,22 +4716,22 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="E50" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="F50" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51">
@@ -4943,19 +4739,19 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H51" t="s">
         <v>44</v>
@@ -4966,22 +4762,22 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="E52" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="F52" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H52" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53">
@@ -4989,22 +4785,22 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H53" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54">
@@ -5012,22 +4808,22 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>235</v>
       </c>
       <c r="E54" t="s">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="F54" t="s">
-        <v>396</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H54" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
@@ -5035,22 +4831,22 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="E55" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="G55" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H55" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56">
@@ -5058,22 +4854,22 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="E56" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="F56" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="G56" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H56" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
@@ -5081,22 +4877,22 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="F57" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="G57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H57" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58">
@@ -5104,19 +4900,19 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="E58" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="F58" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
@@ -5127,22 +4923,22 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="E59" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H59" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60">
@@ -5150,22 +4946,22 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61">
@@ -5173,22 +4969,22 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>342</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H61" t="s">
-        <v>418</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62">
@@ -5196,22 +4992,22 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="F62" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="G62" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H62" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63">
@@ -5219,22 +5015,22 @@
         <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="E63" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H63" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64">
@@ -5242,22 +5038,22 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="E64" t="s">
-        <v>428</v>
+        <v>367</v>
       </c>
       <c r="F64" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="G64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65">
@@ -5265,19 +5061,19 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
         <v>50</v>
@@ -5288,22 +5084,22 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="E66" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="F66" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H66" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67">
@@ -5311,22 +5107,22 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H67" t="s">
-        <v>438</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68">
@@ -5334,22 +5130,22 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>439</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>213</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H68" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69">
@@ -5357,22 +5153,22 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>315</v>
       </c>
       <c r="F69" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="G69" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H69" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70">
@@ -5380,22 +5176,22 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="E70" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="F70" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H70" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71">
@@ -5403,22 +5199,22 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="E71" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H71" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5441,28 +5237,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="D1" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="E1" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="G1" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
@@ -5473,7 +5269,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5482,13 +5278,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="G2" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="H2" t="s">
-        <v>465</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
@@ -5496,7 +5292,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -5505,13 +5301,13 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="H3" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
@@ -5519,7 +5315,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -5528,13 +5324,13 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="H4" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
@@ -5542,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5551,13 +5347,13 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="G5" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="H5" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
@@ -5565,7 +5361,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5574,13 +5370,13 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="G6" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7">
@@ -5588,7 +5384,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -5597,13 +5393,13 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="G7" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="H7" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8">
@@ -5611,7 +5407,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -5620,13 +5416,13 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="H8" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9">
@@ -5634,7 +5430,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -5643,13 +5439,13 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="G9" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="H9" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10">
@@ -5657,7 +5453,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -5666,13 +5462,13 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
       <c r="G10" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="H10" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
@@ -5680,7 +5476,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -5689,56 +5485,56 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="G11" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="H12" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="E14" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15">
@@ -5749,16 +5545,16 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>510</v>
+        <v>442</v>
       </c>
       <c r="F15" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
@@ -5766,16 +5562,16 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="E16" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="F16" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17">
@@ -5783,16 +5579,16 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="E17" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="F17" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18">
@@ -5800,16 +5596,16 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="E18" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="F18" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19">
@@ -5817,59 +5613,59 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="D19" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="F19" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="D22" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="E22" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="G22" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="H22" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23">
@@ -5877,117 +5673,117 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="G23" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="H23" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="D24" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="G24" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="H24" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="D25" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="G25" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="H25" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D27" t="s">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="G27" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="H27" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
